--- a/İHA Malzemeler.xlsx
+++ b/İHA Malzemeler.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\furka\Desktop\İHA PROJESİ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\furka\Desktop\IHA-Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{145DAF45-A055-4E59-B4E9-9C61ED65E571}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{345C43D3-F311-4BBD-9852-BC87B29B5721}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4680" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -75,9 +75,6 @@
     <t>HAKRC 40A x 4 2-5s Blheli-s Dshot600 Esc</t>
   </si>
   <si>
-    <t>170A Sigorta</t>
-  </si>
-  <si>
     <t>Batarya 3S  2200 40C (+1 Tane Yedek)</t>
   </si>
   <si>
@@ -91,13 +88,16 @@
   </si>
   <si>
     <t>belirsiz 443,75</t>
+  </si>
+  <si>
+    <t>East Marine Termal Devre Kesici-175Amper</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,6 +137,12 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -159,7 +165,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -194,6 +200,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -525,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -655,7 +667,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="3">
         <v>628.02</v>
@@ -736,10 +748,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="D9" s="4">
         <v>13</v>
@@ -789,17 +801,17 @@
       <c r="A11" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="9">
-        <v>23.8</v>
+      <c r="B11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="8">
+        <v>576</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="11">
-        <v>1</v>
+      <c r="E11" s="12">
+        <v>2</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="10"/>
@@ -816,31 +828,31 @@
       <c r="A12" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="8">
-        <v>576</v>
+      <c r="B12" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="11">
+        <v>72.98</v>
       </c>
       <c r="D12" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="11">
+        <v>259.60000000000002</v>
+      </c>
+      <c r="D13" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="11">
-        <v>72.98</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="11">
-        <v>2</v>
+      <c r="E13" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -849,7 +861,7 @@
       </c>
       <c r="C14" s="4">
         <f>SUBTOTAL(109,C2:C13)</f>
-        <v>3464.4300000000003</v>
+        <v>3700.23</v>
       </c>
       <c r="D14" s="4">
         <f>SUBTOTAL(109,D2:D13)</f>
@@ -859,6 +871,12 @@
         <f>SUBTOTAL(109,E2:E13)</f>
         <v>18</v>
       </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="11"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/İHA Malzemeler.xlsx
+++ b/İHA Malzemeler.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\furka\Desktop\IHA-Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{345C43D3-F311-4BBD-9852-BC87B29B5721}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91D9405A-3E62-4A28-800B-40631A10F9AC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sayfa2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
   <si>
     <t>Adet</t>
   </si>
@@ -87,17 +88,68 @@
     <t>Racerstar REV35 35A BLheli_S 3-6 S 4 1 Esc Dshot600</t>
   </si>
   <si>
-    <t>belirsiz 443,75</t>
-  </si>
-  <si>
     <t>East Marine Termal Devre Kesici-175Amper</t>
+  </si>
+  <si>
+    <t>Görev Analizi ve Literatür Taraması</t>
+  </si>
+  <si>
+    <t>Tasarım Boyutsal Parametrelerinin Belirlenmesi</t>
+  </si>
+  <si>
+    <t>Tasarımın Yapısal Özellikleri</t>
+  </si>
+  <si>
+    <t>Kontrol ve Güç Sistemleri Tasarımı</t>
+  </si>
+  <si>
+    <t>Uçuş Performans Parametreleri</t>
+  </si>
+  <si>
+    <t>Hava Aracı Maliyet Hesaplama</t>
+  </si>
+  <si>
+    <t>Proje Yönetimi</t>
+  </si>
+  <si>
+    <t>HAFTALAR</t>
+  </si>
+  <si>
+    <t>FURKAN KARAKETİR-HALİT BAŞBUĞ</t>
+  </si>
+  <si>
+    <t>HALİT BAŞBUĞ</t>
+  </si>
+  <si>
+    <t>FURKAN KİRAZ</t>
+  </si>
+  <si>
+    <t>Teknik Çizimler</t>
+  </si>
+  <si>
+    <t>FURKAN KARAKETİR</t>
+  </si>
+  <si>
+    <t>İP* Adı/Tanımı</t>
+  </si>
+  <si>
+    <t>Kimler Tarafından Yapılacağı</t>
+  </si>
+  <si>
+    <t>İP* No</t>
+  </si>
+  <si>
+    <t>493,24?</t>
+  </si>
+  <si>
+    <t>9,6?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,16 +195,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -160,12 +232,92 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -207,8 +359,33 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="3" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="%40 - Vurgu1" xfId="2" builtinId="31"/>
+    <cellStyle name="%60 - Vurgu4" xfId="3" builtinId="44"/>
     <cellStyle name="Köprü" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -540,7 +717,7 @@
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -723,11 +900,11 @@
       <c r="B8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="1">
-        <v>493.24</v>
-      </c>
-      <c r="D8" s="2">
-        <v>9.6</v>
+      <c r="C8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
@@ -750,10 +927,10 @@
       <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="4">
+      <c r="C9" s="1">
+        <v>443.75</v>
+      </c>
+      <c r="D9" s="16">
         <v>13</v>
       </c>
       <c r="E9" s="1">
@@ -843,7 +1020,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B13" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" s="11">
         <v>259.60000000000002</v>
@@ -861,11 +1038,11 @@
       </c>
       <c r="C14" s="4">
         <f>SUBTOTAL(109,C2:C13)</f>
-        <v>3700.23</v>
+        <v>3650.7400000000002</v>
       </c>
       <c r="D14" s="4">
         <f>SUBTOTAL(109,D2:D13)</f>
-        <v>413.5</v>
+        <v>403.9</v>
       </c>
       <c r="E14" s="5">
         <f>SUBTOTAL(109,E2:E13)</f>
@@ -886,4 +1063,425 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF1D8283-7B8C-49E3-8066-CA0537BE067C}">
+  <dimension ref="A1:AA10"/>
+  <sheetViews>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="44.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.42578125" customWidth="1"/>
+    <col min="4" max="27" width="4.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="20"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="15">
+        <v>1</v>
+      </c>
+      <c r="E2" s="15">
+        <v>2</v>
+      </c>
+      <c r="F2" s="15">
+        <v>3</v>
+      </c>
+      <c r="G2" s="15">
+        <v>4</v>
+      </c>
+      <c r="H2" s="15">
+        <v>5</v>
+      </c>
+      <c r="I2" s="15">
+        <v>6</v>
+      </c>
+      <c r="J2" s="15">
+        <v>7</v>
+      </c>
+      <c r="K2" s="15">
+        <v>8</v>
+      </c>
+      <c r="L2" s="15">
+        <v>9</v>
+      </c>
+      <c r="M2" s="15">
+        <v>10</v>
+      </c>
+      <c r="N2" s="15">
+        <v>11</v>
+      </c>
+      <c r="O2" s="15">
+        <v>12</v>
+      </c>
+      <c r="P2" s="15">
+        <v>13</v>
+      </c>
+      <c r="Q2" s="15">
+        <v>14</v>
+      </c>
+      <c r="R2" s="15">
+        <v>15</v>
+      </c>
+      <c r="S2" s="15">
+        <v>16</v>
+      </c>
+      <c r="T2" s="15">
+        <v>17</v>
+      </c>
+      <c r="U2" s="15">
+        <v>18</v>
+      </c>
+      <c r="V2" s="15">
+        <v>19</v>
+      </c>
+      <c r="W2" s="15">
+        <v>20</v>
+      </c>
+      <c r="X2" s="15">
+        <v>21</v>
+      </c>
+      <c r="Y2" s="15">
+        <v>22</v>
+      </c>
+      <c r="Z2" s="15">
+        <v>23</v>
+      </c>
+      <c r="AA2" s="15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3" s="17">
+        <v>1</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
+      <c r="W3" s="15"/>
+      <c r="X3" s="15"/>
+      <c r="Y3" s="15"/>
+      <c r="Z3" s="15"/>
+      <c r="AA3" s="15"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" s="17">
+        <v>2</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="15"/>
+      <c r="W4" s="15"/>
+      <c r="X4" s="15"/>
+      <c r="Y4" s="15"/>
+      <c r="Z4" s="15"/>
+      <c r="AA4" s="15"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" s="17">
+        <v>3</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="23"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="15"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="15"/>
+      <c r="Y5" s="15"/>
+      <c r="Z5" s="15"/>
+      <c r="AA5" s="15"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" s="17">
+        <v>4</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="15"/>
+      <c r="Z6" s="15"/>
+      <c r="AA6" s="15"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" s="17">
+        <v>5</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="15"/>
+      <c r="AA7" s="15"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8" s="17">
+        <v>6</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="23"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="15"/>
+      <c r="W8" s="15"/>
+      <c r="X8" s="15"/>
+      <c r="Y8" s="15"/>
+      <c r="Z8" s="15"/>
+      <c r="AA8" s="15"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A9" s="17">
+        <v>7</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="23"/>
+      <c r="T9" s="23"/>
+      <c r="U9" s="23"/>
+      <c r="V9" s="23"/>
+      <c r="W9" s="23"/>
+      <c r="X9" s="23"/>
+      <c r="Y9" s="23"/>
+      <c r="Z9" s="15"/>
+      <c r="AA9" s="15"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A10" s="17">
+        <v>8</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="23"/>
+      <c r="T10" s="23"/>
+      <c r="U10" s="23"/>
+      <c r="V10" s="23"/>
+      <c r="W10" s="23"/>
+      <c r="X10" s="23"/>
+      <c r="Y10" s="23"/>
+      <c r="Z10" s="23"/>
+      <c r="AA10" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D1:AA1"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/İHA Malzemeler.xlsx
+++ b/İHA Malzemeler.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\furka\Desktop\IHA-Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91D9405A-3E62-4A28-800B-40631A10F9AC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A5089C-5485-4598-9789-CC15DA336EF2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="42">
   <si>
     <t>Adet</t>
   </si>
@@ -143,6 +143,15 @@
   </si>
   <si>
     <t>9,6?</t>
+  </si>
+  <si>
+    <t>2?</t>
+  </si>
+  <si>
+    <t>Karbon Fiber Gövde</t>
+  </si>
+  <si>
+    <t>1?</t>
   </si>
 </sst>
 </file>
@@ -366,6 +375,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -381,7 +391,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="3" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="%40 - Vurgu1" xfId="2" builtinId="31"/>
@@ -429,8 +438,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tablo1" displayName="Tablo1" ref="B1:E14" totalsRowShown="0" headerRowDxfId="4">
-  <autoFilter ref="B1:E14" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tablo1" displayName="Tablo1" ref="B1:E15" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="B1:E15" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Ürün Türkiye"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Toplam Fiyat(K.D.V. Dahil)"/>
@@ -717,7 +726,7 @@
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -906,8 +915,8 @@
       <c r="D8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="1">
-        <v>1</v>
+      <c r="E8" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="10"/>
@@ -987,8 +996,8 @@
       <c r="D11" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="12">
-        <v>2</v>
+      <c r="E11" s="12" t="s">
+        <v>39</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="10"/>
@@ -1014,8 +1023,8 @@
       <c r="D12" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="11">
-        <v>2</v>
+      <c r="E12" s="11" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -1033,27 +1042,35 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="9">
+        <v>576</v>
+      </c>
+      <c r="D14" s="14">
+        <v>75</v>
+      </c>
+      <c r="E14" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="4">
-        <f>SUBTOTAL(109,C2:C13)</f>
-        <v>3650.7400000000002</v>
-      </c>
-      <c r="D14" s="4">
-        <f>SUBTOTAL(109,D2:D13)</f>
-        <v>403.9</v>
-      </c>
-      <c r="E14" s="5">
-        <f>SUBTOTAL(109,E2:E13)</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="11"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="11"/>
+      <c r="C15" s="4">
+        <f>SUBTOTAL(109,C2:C14)</f>
+        <v>4226.74</v>
+      </c>
+      <c r="D15" s="4">
+        <f>SUBTOTAL(109,D2:D14)</f>
+        <v>478.9</v>
+      </c>
+      <c r="E15" s="5">
+        <f>SUBTOTAL(109,E2:E14)</f>
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1082,46 +1099,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19"/>
-      <c r="Y1" s="19"/>
-      <c r="Z1" s="19"/>
-      <c r="AA1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
+      <c r="X1" s="20"/>
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="20"/>
+      <c r="AA1" s="21"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
       <c r="D2" s="15">
         <v>1</v>
       </c>
@@ -1205,11 +1222,11 @@
       <c r="C3" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
       <c r="I3" s="15"/>
       <c r="J3" s="15"/>
       <c r="K3" s="15"/>
@@ -1242,16 +1259,16 @@
       </c>
       <c r="D4" s="15"/>
       <c r="E4" s="15"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
       <c r="P4" s="15"/>
       <c r="Q4" s="15"/>
       <c r="R4" s="15"/>
@@ -1281,16 +1298,16 @@
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
       <c r="I5" s="15"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
-      <c r="S5" s="23"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
       <c r="T5" s="15"/>
       <c r="U5" s="15"/>
       <c r="V5" s="15"/>
@@ -1316,13 +1333,13 @@
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
       <c r="Q6" s="15"/>
       <c r="R6" s="15"/>
       <c r="S6" s="15"/>
@@ -1353,15 +1370,15 @@
       <c r="I7" s="15"/>
       <c r="J7" s="15"/>
       <c r="K7" s="15"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23"/>
-      <c r="S7" s="23"/>
-      <c r="T7" s="23"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
       <c r="U7" s="15"/>
       <c r="V7" s="15"/>
       <c r="W7" s="15"/>
@@ -1389,14 +1406,14 @@
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
-      <c r="S8" s="23"/>
-      <c r="T8" s="23"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="18"/>
       <c r="U8" s="15"/>
       <c r="V8" s="15"/>
       <c r="W8" s="15"/>
@@ -1416,27 +1433,27 @@
         <v>33</v>
       </c>
       <c r="D9" s="15"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23"/>
-      <c r="S9" s="23"/>
-      <c r="T9" s="23"/>
-      <c r="U9" s="23"/>
-      <c r="V9" s="23"/>
-      <c r="W9" s="23"/>
-      <c r="X9" s="23"/>
-      <c r="Y9" s="23"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="18"/>
+      <c r="U9" s="18"/>
+      <c r="V9" s="18"/>
+      <c r="W9" s="18"/>
+      <c r="X9" s="18"/>
+      <c r="Y9" s="18"/>
       <c r="Z9" s="15"/>
       <c r="AA9" s="15"/>
     </row>
@@ -1450,30 +1467,30 @@
       <c r="C10" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="23"/>
-      <c r="S10" s="23"/>
-      <c r="T10" s="23"/>
-      <c r="U10" s="23"/>
-      <c r="V10" s="23"/>
-      <c r="W10" s="23"/>
-      <c r="X10" s="23"/>
-      <c r="Y10" s="23"/>
-      <c r="Z10" s="23"/>
-      <c r="AA10" s="23"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="18"/>
+      <c r="U10" s="18"/>
+      <c r="V10" s="18"/>
+      <c r="W10" s="18"/>
+      <c r="X10" s="18"/>
+      <c r="Y10" s="18"/>
+      <c r="Z10" s="18"/>
+      <c r="AA10" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/İHA Malzemeler.xlsx
+++ b/İHA Malzemeler.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\furka\Desktop\IHA-Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A5089C-5485-4598-9789-CC15DA336EF2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74118692-68CA-428E-99E8-486B287B79C6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="45">
   <si>
     <t>Adet</t>
   </si>
@@ -76,9 +76,6 @@
     <t>HAKRC 40A x 4 2-5s Blheli-s Dshot600 Esc</t>
   </si>
   <si>
-    <t>Batarya 3S  2200 40C (+1 Tane Yedek)</t>
-  </si>
-  <si>
     <t>XBee Explorer USB</t>
   </si>
   <si>
@@ -152,13 +149,25 @@
   </si>
   <si>
     <t>1?</t>
+  </si>
+  <si>
+    <t>291,5 </t>
+  </si>
+  <si>
+    <t>708.28</t>
+  </si>
+  <si>
+    <t>Batarya 3S 4000 mAh 35C (+1 Tane Yedek)</t>
+  </si>
+  <si>
+    <t>Batarya 3S 2200 mAh 40C (+1 Tane Yedek)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,6 +221,13 @@
       <charset val="162"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -326,7 +342,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -390,6 +406,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -399,15 +421,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b/>
@@ -424,6 +437,15 @@
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -438,12 +460,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tablo1" displayName="Tablo1" ref="B1:E15" totalsRowShown="0" headerRowDxfId="4">
-  <autoFilter ref="B1:E15" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tablo1" displayName="Tablo1" ref="B1:E16" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="B1:E16" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Ürün Türkiye"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Toplam Fiyat(K.D.V. Dahil)"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Toplam Ağırlık (gr)" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Toplam Ağırlık (gr)" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Adet"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -451,10 +473,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tablo2" displayName="Tablo2" ref="A1:A12" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tablo2" displayName="Tablo2" ref="A1:A12" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <autoFilter ref="A1:A12" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Alınma Durumu" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Alınma Durumu" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -723,10 +745,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -853,7 +875,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="C6" s="3">
         <v>628.02</v>
@@ -910,13 +932,13 @@
         <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="E8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="10"/>
@@ -934,7 +956,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="1">
         <v>443.75</v>
@@ -988,7 +1010,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" s="8">
         <v>576</v>
@@ -997,7 +1019,7 @@
         <v>5</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="10"/>
@@ -1015,7 +1037,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" s="11">
         <v>72.98</v>
@@ -1024,12 +1046,12 @@
         <v>12</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B13" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="11">
         <v>259.60000000000002</v>
@@ -1043,7 +1065,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B14" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" s="9">
         <v>576</v>
@@ -1070,6 +1092,20 @@
       <c r="E15" s="5">
         <f>SUBTOTAL(109,E2:E14)</f>
         <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="24">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1100,16 +1136,16 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="22" t="s">
-        <v>35</v>
-      </c>
       <c r="D1" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E1" s="20"/>
       <c r="F1" s="20"/>
@@ -1217,10 +1253,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3" s="18"/>
       <c r="E3" s="18"/>
@@ -1252,10 +1288,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" s="15"/>
       <c r="E4" s="15"/>
@@ -1287,10 +1323,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
@@ -1322,10 +1358,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>
@@ -1357,10 +1393,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
@@ -1392,10 +1428,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
@@ -1427,10 +1463,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>32</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>33</v>
       </c>
       <c r="D9" s="15"/>
       <c r="E9" s="18"/>
@@ -1462,10 +1498,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" s="18"/>
       <c r="E10" s="18"/>

--- a/İHA Malzemeler.xlsx
+++ b/İHA Malzemeler.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\furka\Desktop\IHA-Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74118692-68CA-428E-99E8-486B287B79C6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01528CB7-E544-4DDD-AE8F-8DE8F44C2DE8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="2715" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -392,6 +392,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -406,12 +412,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -421,6 +421,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -437,15 +446,6 @@
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -460,12 +460,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tablo1" displayName="Tablo1" ref="B1:E16" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tablo1" displayName="Tablo1" ref="B1:E16" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="B1:E16" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Ürün Türkiye"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Toplam Fiyat(K.D.V. Dahil)"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Toplam Ağırlık (gr)" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Toplam Ağırlık (gr)" dataDxfId="3"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Adet"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -473,10 +473,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tablo2" displayName="Tablo2" ref="A1:A12" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tablo2" displayName="Tablo2" ref="A1:A12" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
   <autoFilter ref="A1:A12" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Alınma Durumu" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Alınma Durumu" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -748,7 +748,7 @@
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1098,13 +1098,13 @@
       <c r="B16" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="20" t="s">
         <v>42</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E16" s="19">
         <v>2</v>
       </c>
     </row>
@@ -1135,46 +1135,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="20"/>
-      <c r="Z1" s="20"/>
-      <c r="AA1" s="21"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="22"/>
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="22"/>
+      <c r="AA1" s="23"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
       <c r="D2" s="15">
         <v>1</v>
       </c>

--- a/İHA Malzemeler.xlsx
+++ b/İHA Malzemeler.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\furka\Desktop\IHA-Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01528CB7-E544-4DDD-AE8F-8DE8F44C2DE8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A08C85-A54C-4CB7-BE35-866C3F72B5C4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="2715" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
     <sheet name="Sayfa2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sayfa3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sayfa4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="58">
   <si>
     <t>Adet</t>
   </si>
@@ -73,9 +75,6 @@
     <t>M8N GPS</t>
   </si>
   <si>
-    <t>HAKRC 40A x 4 2-5s Blheli-s Dshot600 Esc</t>
-  </si>
-  <si>
     <t>XBee Explorer USB</t>
   </si>
   <si>
@@ -136,21 +135,12 @@
     <t>İP* No</t>
   </si>
   <si>
-    <t>493,24?</t>
-  </si>
-  <si>
-    <t>9,6?</t>
-  </si>
-  <si>
     <t>2?</t>
   </si>
   <si>
     <t>Karbon Fiber Gövde</t>
   </si>
   <si>
-    <t>1?</t>
-  </si>
-  <si>
     <t>291,5 </t>
   </si>
   <si>
@@ -160,14 +150,65 @@
     <t>Batarya 3S 4000 mAh 35C (+1 Tane Yedek)</t>
   </si>
   <si>
-    <t>Batarya 3S 2200 mAh 40C (+1 Tane Yedek)</t>
+    <t>Plastik</t>
+  </si>
+  <si>
+    <t>İHA Olası Gövde Malzemeleri</t>
+  </si>
+  <si>
+    <t>Sağlamlık</t>
+  </si>
+  <si>
+    <t>Kolay Tamir</t>
+  </si>
+  <si>
+    <t>Hafiflik</t>
+  </si>
+  <si>
+    <t>Fiyat</t>
+  </si>
+  <si>
+    <t>Üretim Kolaylığı</t>
+  </si>
+  <si>
+    <t>Değerlendirme Kriterleri</t>
+  </si>
+  <si>
+    <t>Toplam Puan</t>
+  </si>
+  <si>
+    <t>Puanlama (Her Bir Kriter 5 Puan Üzerinden Değerlendirilmiştir)</t>
+  </si>
+  <si>
+    <t>Karbon Fiber</t>
+  </si>
+  <si>
+    <t>Bileşenler</t>
+  </si>
+  <si>
+    <t>Omnibus F4 Pro V2 Uçuş Kontrolcü</t>
+  </si>
+  <si>
+    <t>X uzaklığı (mm)</t>
+  </si>
+  <si>
+    <t>Y uzaklığı (mm)</t>
+  </si>
+  <si>
+    <t>Z uzaklığı (mm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sağ Ön Motor (Emax RS2205)  </t>
+  </si>
+  <si>
+    <t>Birim Ağırlık (gr)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -228,8 +269,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -248,8 +301,20 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -335,14 +400,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -353,9 +456,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -398,6 +498,25 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -413,10 +532,14 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="%40 - Vurgu1" xfId="2" builtinId="31"/>
     <cellStyle name="%60 - Vurgu4" xfId="3" builtinId="44"/>
+    <cellStyle name="%60 - Vurgu5" xfId="4" builtinId="48"/>
     <cellStyle name="Köprü" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -460,8 +583,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tablo1" displayName="Tablo1" ref="B1:E16" totalsRowShown="0" headerRowDxfId="4">
-  <autoFilter ref="B1:E16" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tablo1" displayName="Tablo1" ref="B1:E14" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="B1:E14" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Ürün Türkiye"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Toplam Fiyat(K.D.V. Dahil)"/>
@@ -745,10 +868,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O16"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -763,7 +886,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -781,7 +904,7 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -796,10 +919,10 @@
       <c r="E2" s="1">
         <v>1</v>
       </c>
-      <c r="F2" s="6"/>
+      <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -814,10 +937,10 @@
       <c r="E3" s="1">
         <v>4</v>
       </c>
-      <c r="F3" s="7"/>
+      <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -832,19 +955,19 @@
       <c r="E4" s="1">
         <v>1</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -859,46 +982,46 @@
       <c r="E5" s="1">
         <v>1</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="3">
-        <v>628.02</v>
-      </c>
-      <c r="D6" s="2">
-        <v>183</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="B6" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="18">
         <v>2</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -913,200 +1036,187 @@
       <c r="E7" s="1">
         <v>1</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1">
+        <v>443.75</v>
+      </c>
+      <c r="D8" s="15">
+        <v>13</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="7">
+        <v>331.82</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="7">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="7">
+        <v>576</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C11" s="10">
+        <v>72.98</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="10">
+        <v>259.60000000000002</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="1">
-        <v>443.75</v>
-      </c>
-      <c r="D9" s="16">
-        <v>13</v>
-      </c>
-      <c r="E9" s="1">
+      <c r="C13" s="8">
+        <v>680</v>
+      </c>
+      <c r="D13" s="13">
+        <v>75</v>
+      </c>
+      <c r="E13" s="10">
         <v>1</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="8">
-        <v>331.82</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="8">
-        <v>1</v>
-      </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="8">
-        <v>576</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="11">
-        <v>72.98</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="11">
-        <v>259.60000000000002</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="8">
-        <v>1</v>
-      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="9">
-        <v>576</v>
-      </c>
-      <c r="D14" s="14">
-        <v>75</v>
+      <c r="B14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="11">
+        <f>SUBTOTAL(109,C2:C13)</f>
+        <v>3702.72</v>
+      </c>
+      <c r="D14" s="11">
+        <f>SUBTOTAL(109,D2:D13)</f>
+        <v>295.89999999999998</v>
       </c>
       <c r="E14" s="11">
-        <v>1</v>
+        <f>SUBTOTAL(109,E2:E13)</f>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="4">
-        <f>SUBTOTAL(109,C2:C14)</f>
-        <v>4226.74</v>
-      </c>
-      <c r="D15" s="4">
-        <f>SUBTOTAL(109,D2:D14)</f>
-        <v>478.9</v>
-      </c>
-      <c r="E15" s="5">
-        <f>SUBTOTAL(109,E2:E14)</f>
-        <v>14</v>
-      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="19">
-        <v>2</v>
-      </c>
+      <c r="D16" s="24"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="20"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1135,398 +1245,398 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="24" t="s">
+      <c r="A1" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="29"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="14">
+        <v>1</v>
+      </c>
+      <c r="E2" s="14">
+        <v>2</v>
+      </c>
+      <c r="F2" s="14">
+        <v>3</v>
+      </c>
+      <c r="G2" s="14">
+        <v>4</v>
+      </c>
+      <c r="H2" s="14">
+        <v>5</v>
+      </c>
+      <c r="I2" s="14">
+        <v>6</v>
+      </c>
+      <c r="J2" s="14">
+        <v>7</v>
+      </c>
+      <c r="K2" s="14">
+        <v>8</v>
+      </c>
+      <c r="L2" s="14">
+        <v>9</v>
+      </c>
+      <c r="M2" s="14">
+        <v>10</v>
+      </c>
+      <c r="N2" s="14">
+        <v>11</v>
+      </c>
+      <c r="O2" s="14">
+        <v>12</v>
+      </c>
+      <c r="P2" s="14">
+        <v>13</v>
+      </c>
+      <c r="Q2" s="14">
+        <v>14</v>
+      </c>
+      <c r="R2" s="14">
+        <v>15</v>
+      </c>
+      <c r="S2" s="14">
+        <v>16</v>
+      </c>
+      <c r="T2" s="14">
+        <v>17</v>
+      </c>
+      <c r="U2" s="14">
+        <v>18</v>
+      </c>
+      <c r="V2" s="14">
+        <v>19</v>
+      </c>
+      <c r="W2" s="14">
+        <v>20</v>
+      </c>
+      <c r="X2" s="14">
+        <v>21</v>
+      </c>
+      <c r="Y2" s="14">
+        <v>22</v>
+      </c>
+      <c r="Z2" s="14">
+        <v>23</v>
+      </c>
+      <c r="AA2" s="14">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3" s="16">
+        <v>1</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="23"/>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="15">
-        <v>1</v>
-      </c>
-      <c r="E2" s="15">
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="14"/>
+      <c r="Y3" s="14"/>
+      <c r="Z3" s="14"/>
+      <c r="AA3" s="14"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" s="16">
         <v>2</v>
       </c>
-      <c r="F2" s="15">
+      <c r="B4" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="14"/>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="14"/>
+      <c r="AA4" s="14"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" s="16">
         <v>3</v>
       </c>
-      <c r="G2" s="15">
+      <c r="B5" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="14"/>
+      <c r="Y5" s="14"/>
+      <c r="Z5" s="14"/>
+      <c r="AA5" s="14"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" s="16">
         <v>4</v>
       </c>
-      <c r="H2" s="15">
+      <c r="B6" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="14"/>
+      <c r="AA6" s="14"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" s="16">
         <v>5</v>
       </c>
-      <c r="I2" s="15">
+      <c r="B7" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="14"/>
+      <c r="Y7" s="14"/>
+      <c r="Z7" s="14"/>
+      <c r="AA7" s="14"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8" s="16">
         <v>6</v>
       </c>
-      <c r="J2" s="15">
+      <c r="B8" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="14"/>
+      <c r="Z8" s="14"/>
+      <c r="AA8" s="14"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A9" s="16">
         <v>7</v>
       </c>
-      <c r="K2" s="15">
+      <c r="B9" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="17"/>
+      <c r="U9" s="17"/>
+      <c r="V9" s="17"/>
+      <c r="W9" s="17"/>
+      <c r="X9" s="17"/>
+      <c r="Y9" s="17"/>
+      <c r="Z9" s="14"/>
+      <c r="AA9" s="14"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A10" s="16">
         <v>8</v>
       </c>
-      <c r="L2" s="15">
-        <v>9</v>
-      </c>
-      <c r="M2" s="15">
-        <v>10</v>
-      </c>
-      <c r="N2" s="15">
-        <v>11</v>
-      </c>
-      <c r="O2" s="15">
-        <v>12</v>
-      </c>
-      <c r="P2" s="15">
-        <v>13</v>
-      </c>
-      <c r="Q2" s="15">
-        <v>14</v>
-      </c>
-      <c r="R2" s="15">
-        <v>15</v>
-      </c>
-      <c r="S2" s="15">
-        <v>16</v>
-      </c>
-      <c r="T2" s="15">
-        <v>17</v>
-      </c>
-      <c r="U2" s="15">
-        <v>18</v>
-      </c>
-      <c r="V2" s="15">
-        <v>19</v>
-      </c>
-      <c r="W2" s="15">
-        <v>20</v>
-      </c>
-      <c r="X2" s="15">
-        <v>21</v>
-      </c>
-      <c r="Y2" s="15">
-        <v>22</v>
-      </c>
-      <c r="Z2" s="15">
-        <v>23</v>
-      </c>
-      <c r="AA2" s="15">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A3" s="17">
-        <v>1</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
-      <c r="V3" s="15"/>
-      <c r="W3" s="15"/>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="15"/>
-      <c r="Z3" s="15"/>
-      <c r="AA3" s="15"/>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" s="17">
-        <v>2</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
-      <c r="V4" s="15"/>
-      <c r="W4" s="15"/>
-      <c r="X4" s="15"/>
-      <c r="Y4" s="15"/>
-      <c r="Z4" s="15"/>
-      <c r="AA4" s="15"/>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="17">
-        <v>3</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15"/>
-      <c r="V5" s="15"/>
-      <c r="W5" s="15"/>
-      <c r="X5" s="15"/>
-      <c r="Y5" s="15"/>
-      <c r="Z5" s="15"/>
-      <c r="AA5" s="15"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" s="17">
-        <v>4</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="15"/>
-      <c r="V6" s="15"/>
-      <c r="W6" s="15"/>
-      <c r="X6" s="15"/>
-      <c r="Y6" s="15"/>
-      <c r="Z6" s="15"/>
-      <c r="AA6" s="15"/>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="17">
-        <v>5</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="18"/>
-      <c r="S7" s="18"/>
-      <c r="T7" s="18"/>
-      <c r="U7" s="15"/>
-      <c r="V7" s="15"/>
-      <c r="W7" s="15"/>
-      <c r="X7" s="15"/>
-      <c r="Y7" s="15"/>
-      <c r="Z7" s="15"/>
-      <c r="AA7" s="15"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" s="17">
-        <v>6</v>
-      </c>
-      <c r="B8" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="18"/>
-      <c r="S8" s="18"/>
-      <c r="T8" s="18"/>
-      <c r="U8" s="15"/>
-      <c r="V8" s="15"/>
-      <c r="W8" s="15"/>
-      <c r="X8" s="15"/>
-      <c r="Y8" s="15"/>
-      <c r="Z8" s="15"/>
-      <c r="AA8" s="15"/>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" s="17">
-        <v>7</v>
-      </c>
-      <c r="B9" s="15" t="s">
+      <c r="C10" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="18"/>
-      <c r="S9" s="18"/>
-      <c r="T9" s="18"/>
-      <c r="U9" s="18"/>
-      <c r="V9" s="18"/>
-      <c r="W9" s="18"/>
-      <c r="X9" s="18"/>
-      <c r="Y9" s="18"/>
-      <c r="Z9" s="15"/>
-      <c r="AA9" s="15"/>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" s="17">
-        <v>8</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="18"/>
-      <c r="S10" s="18"/>
-      <c r="T10" s="18"/>
-      <c r="U10" s="18"/>
-      <c r="V10" s="18"/>
-      <c r="W10" s="18"/>
-      <c r="X10" s="18"/>
-      <c r="Y10" s="18"/>
-      <c r="Z10" s="18"/>
-      <c r="AA10" s="18"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="17"/>
+      <c r="W10" s="17"/>
+      <c r="X10" s="17"/>
+      <c r="Y10" s="17"/>
+      <c r="Z10" s="17"/>
+      <c r="AA10" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1537,4 +1647,340 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41671F1E-70B0-48A9-A45A-BFE8CBF67E66}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="14"/>
+    </row>
+    <row r="2" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="26">
+        <v>2</v>
+      </c>
+      <c r="C3" s="26">
+        <v>4</v>
+      </c>
+      <c r="D3" s="26">
+        <v>2</v>
+      </c>
+      <c r="E3" s="26">
+        <v>4</v>
+      </c>
+      <c r="F3" s="26">
+        <v>5</v>
+      </c>
+      <c r="G3" s="26">
+        <f>SUM(B3:F3)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="26">
+        <v>5</v>
+      </c>
+      <c r="C4" s="26">
+        <v>2</v>
+      </c>
+      <c r="D4" s="26">
+        <v>5</v>
+      </c>
+      <c r="E4" s="26">
+        <v>5</v>
+      </c>
+      <c r="F4" s="26">
+        <v>2</v>
+      </c>
+      <c r="G4" s="26">
+        <f>SUM(B4:F4)</f>
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF38C121-F479-40FB-BFFC-C3A63D4BAC97}">
+  <dimension ref="A1:J19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="16">
+        <v>30</v>
+      </c>
+      <c r="C2" s="16">
+        <v>143</v>
+      </c>
+      <c r="D2" s="16">
+        <v>86</v>
+      </c>
+      <c r="E2" s="16">
+        <v>13</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="16">
+        <v>20</v>
+      </c>
+      <c r="C3" s="16">
+        <v>0</v>
+      </c>
+      <c r="D3" s="16">
+        <v>0</v>
+      </c>
+      <c r="E3" s="16">
+        <v>18</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/İHA Malzemeler.xlsx
+++ b/İHA Malzemeler.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\furka\Desktop\IHA-Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A08C85-A54C-4CB7-BE35-866C3F72B5C4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B7F501-3F4E-4491-9CE3-0806B2148559}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="70">
   <si>
     <t>Adet</t>
   </si>
@@ -202,6 +202,42 @@
   </si>
   <si>
     <t>Birim Ağırlık (gr)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sağ Arka Motor (Emax RS2205)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sol Ön Motor (Emax RS2205)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sol Arka Motor (Emax RS2205)  </t>
+  </si>
+  <si>
+    <t>4 in 1  ESC (Racerstar REV35)</t>
+  </si>
+  <si>
+    <t>RF Alıcı (FlySky FS-I6AB)</t>
+  </si>
+  <si>
+    <t>Buzzer</t>
+  </si>
+  <si>
+    <t>Sigortalı Akım Kesici (East Marine)</t>
+  </si>
+  <si>
+    <t>Lityum Polimer Batarya (Profuse)</t>
+  </si>
+  <si>
+    <t>Telemetri (Xbee)</t>
+  </si>
+  <si>
+    <t>GPS Modülü (M8N)</t>
+  </si>
+  <si>
+    <t>MG90S Servo</t>
+  </si>
+  <si>
+    <t>Görev Mekanizması Motor (MG90S)</t>
   </si>
 </sst>
 </file>
@@ -236,22 +272,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="162"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -263,13 +284,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="0"/>
       <name val="Arial"/>
@@ -278,6 +292,24 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -441,24 +473,15 @@
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -468,71 +491,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -543,7 +578,7 @@
     <cellStyle name="Köprü" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="9">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -555,18 +590,83 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="12"/>
         <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
       </font>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -583,13 +683,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tablo1" displayName="Tablo1" ref="B1:E14" totalsRowShown="0" headerRowDxfId="4">
-  <autoFilter ref="B1:E14" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tablo1" displayName="Tablo1" ref="B1:E15" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="B1:E15" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Ürün Türkiye"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Toplam Fiyat(K.D.V. Dahil)"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Toplam Ağırlık (gr)" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Adet"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Ürün Türkiye" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Toplam Fiyat(K.D.V. Dahil)" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Toplam Ağırlık (gr)" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Adet" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -871,7 +971,7 @@
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -885,338 +985,346 @@
     <col min="12" max="12" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="19" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="19">
         <v>233.17</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="20">
         <v>18</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="19">
         <v>1</v>
       </c>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="19">
         <v>318.32</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="20">
         <v>120</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="19">
         <v>4</v>
       </c>
-      <c r="F3" s="6"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="19">
         <v>24.88</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="20">
         <v>22</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="19">
         <v>1</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="F4" s="2"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+    </row>
+    <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="21">
         <v>502.21</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="20">
         <v>14.9</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="19">
         <v>1</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="23" t="s">
         <v>37</v>
       </c>
       <c r="E6" s="18">
         <v>2</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="F6" s="2"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+    </row>
+    <row r="7" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="19">
         <v>259.99</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="20">
         <v>33</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="19">
         <v>1</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="F7" s="2"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+    </row>
+    <row r="8" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="19">
         <v>443.75</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="24">
         <v>13</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="19">
         <v>1</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="18">
         <v>331.82</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="18">
         <v>1</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="F9" s="2"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+    </row>
+    <row r="10" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="18">
         <v>576</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="18">
         <v>72.98</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="18">
         <v>259.60000000000002</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="23">
         <v>680</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="23">
         <v>75</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="18">
+        <v>20.7</v>
+      </c>
+      <c r="D14" s="23">
+        <v>12.1</v>
+      </c>
+      <c r="E14" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="11">
-        <f>SUBTOTAL(109,C2:C13)</f>
-        <v>3702.72</v>
-      </c>
-      <c r="D14" s="11">
-        <f>SUBTOTAL(109,D2:D13)</f>
-        <v>295.89999999999998</v>
-      </c>
-      <c r="E14" s="11">
-        <f>SUBTOTAL(109,E2:E13)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="3"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="1"/>
+      <c r="C15" s="25">
+        <f>SUBTOTAL(109,C2:C14)</f>
+        <v>3723.4199999999996</v>
+      </c>
+      <c r="D15" s="26">
+        <f>SUBTOTAL(109,D2:D14)</f>
+        <v>308</v>
+      </c>
+      <c r="E15" s="25">
+        <f>SUBTOTAL(109,E2:E14)</f>
+        <v>15</v>
+      </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D16" s="24"/>
+      <c r="D16" s="13"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="20"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="23"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1245,398 +1353,398 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28"/>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29"/>
+      <c r="X1" s="29"/>
+      <c r="Y1" s="29"/>
+      <c r="Z1" s="29"/>
+      <c r="AA1" s="30"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="14">
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="6">
         <v>1</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="6">
         <v>2</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="6">
         <v>3</v>
       </c>
-      <c r="G2" s="14">
+      <c r="G2" s="6">
         <v>4</v>
       </c>
-      <c r="H2" s="14">
+      <c r="H2" s="6">
         <v>5</v>
       </c>
-      <c r="I2" s="14">
+      <c r="I2" s="6">
         <v>6</v>
       </c>
-      <c r="J2" s="14">
+      <c r="J2" s="6">
         <v>7</v>
       </c>
-      <c r="K2" s="14">
+      <c r="K2" s="6">
         <v>8</v>
       </c>
-      <c r="L2" s="14">
+      <c r="L2" s="6">
         <v>9</v>
       </c>
-      <c r="M2" s="14">
+      <c r="M2" s="6">
         <v>10</v>
       </c>
-      <c r="N2" s="14">
+      <c r="N2" s="6">
         <v>11</v>
       </c>
-      <c r="O2" s="14">
+      <c r="O2" s="6">
         <v>12</v>
       </c>
-      <c r="P2" s="14">
+      <c r="P2" s="6">
         <v>13</v>
       </c>
-      <c r="Q2" s="14">
+      <c r="Q2" s="6">
         <v>14</v>
       </c>
-      <c r="R2" s="14">
+      <c r="R2" s="6">
         <v>15</v>
       </c>
-      <c r="S2" s="14">
+      <c r="S2" s="6">
         <v>16</v>
       </c>
-      <c r="T2" s="14">
+      <c r="T2" s="6">
         <v>17</v>
       </c>
-      <c r="U2" s="14">
+      <c r="U2" s="6">
         <v>18</v>
       </c>
-      <c r="V2" s="14">
+      <c r="V2" s="6">
         <v>19</v>
       </c>
-      <c r="W2" s="14">
+      <c r="W2" s="6">
         <v>20</v>
       </c>
-      <c r="X2" s="14">
+      <c r="X2" s="6">
         <v>21</v>
       </c>
-      <c r="Y2" s="14">
+      <c r="Y2" s="6">
         <v>22</v>
       </c>
-      <c r="Z2" s="14">
+      <c r="Z2" s="6">
         <v>23</v>
       </c>
-      <c r="AA2" s="14">
+      <c r="AA2" s="6">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A3" s="16">
+      <c r="A3" s="7">
         <v>1</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
-      <c r="V3" s="14"/>
-      <c r="W3" s="14"/>
-      <c r="X3" s="14"/>
-      <c r="Y3" s="14"/>
-      <c r="Z3" s="14"/>
-      <c r="AA3" s="14"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="6"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" s="16">
+      <c r="A4" s="7">
         <v>2</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14"/>
-      <c r="U4" s="14"/>
-      <c r="V4" s="14"/>
-      <c r="W4" s="14"/>
-      <c r="X4" s="14"/>
-      <c r="Y4" s="14"/>
-      <c r="Z4" s="14"/>
-      <c r="AA4" s="14"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="6"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="16">
+      <c r="A5" s="7">
         <v>3</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="14"/>
-      <c r="U5" s="14"/>
-      <c r="V5" s="14"/>
-      <c r="W5" s="14"/>
-      <c r="X5" s="14"/>
-      <c r="Y5" s="14"/>
-      <c r="Z5" s="14"/>
-      <c r="AA5" s="14"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="6"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" s="16">
+      <c r="A6" s="7">
         <v>4</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="14"/>
-      <c r="U6" s="14"/>
-      <c r="V6" s="14"/>
-      <c r="W6" s="14"/>
-      <c r="X6" s="14"/>
-      <c r="Y6" s="14"/>
-      <c r="Z6" s="14"/>
-      <c r="AA6" s="14"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="6"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="16">
+      <c r="A7" s="7">
         <v>5</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="17"/>
-      <c r="U7" s="14"/>
-      <c r="V7" s="14"/>
-      <c r="W7" s="14"/>
-      <c r="X7" s="14"/>
-      <c r="Y7" s="14"/>
-      <c r="Z7" s="14"/>
-      <c r="AA7" s="14"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" s="16">
+      <c r="A8" s="7">
         <v>6</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="14"/>
-      <c r="V8" s="14"/>
-      <c r="W8" s="14"/>
-      <c r="X8" s="14"/>
-      <c r="Y8" s="14"/>
-      <c r="Z8" s="14"/>
-      <c r="AA8" s="14"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="6"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" s="16">
+      <c r="A9" s="7">
         <v>7</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="17"/>
-      <c r="U9" s="17"/>
-      <c r="V9" s="17"/>
-      <c r="W9" s="17"/>
-      <c r="X9" s="17"/>
-      <c r="Y9" s="17"/>
-      <c r="Z9" s="14"/>
-      <c r="AA9" s="14"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="6"/>
+      <c r="AA9" s="6"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" s="16">
+      <c r="A10" s="7">
         <v>8</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="17"/>
-      <c r="V10" s="17"/>
-      <c r="W10" s="17"/>
-      <c r="X10" s="17"/>
-      <c r="Y10" s="17"/>
-      <c r="Z10" s="17"/>
-      <c r="AA10" s="17"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1668,85 +1776,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="14"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="15" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="26">
+      <c r="B3" s="15">
         <v>2</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C3" s="15">
         <v>4</v>
       </c>
-      <c r="D3" s="26">
+      <c r="D3" s="15">
         <v>2</v>
       </c>
-      <c r="E3" s="26">
+      <c r="E3" s="15">
         <v>4</v>
       </c>
-      <c r="F3" s="26">
+      <c r="F3" s="15">
         <v>5</v>
       </c>
-      <c r="G3" s="26">
+      <c r="G3" s="15">
         <f>SUM(B3:F3)</f>
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B4" s="15">
         <v>5</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="15">
         <v>2</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D4" s="15">
         <v>5</v>
       </c>
-      <c r="E4" s="26">
+      <c r="E4" s="15">
         <v>5</v>
       </c>
-      <c r="F4" s="26">
+      <c r="F4" s="15">
         <v>2</v>
       </c>
-      <c r="G4" s="26">
+      <c r="G4" s="15">
         <f>SUM(B4:F4)</f>
         <v>19</v>
       </c>
@@ -1764,14 +1872,14 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.42578125" customWidth="1"/>
+    <col min="1" max="1" width="37.7109375" customWidth="1"/>
     <col min="2" max="2" width="18.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="16.140625" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
   </cols>
@@ -1792,18 +1900,18 @@
       <c r="E1" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>56</v>
       </c>
       <c r="B2" s="16">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="16">
         <v>143</v>
@@ -1812,172 +1920,280 @@
         <v>86</v>
       </c>
       <c r="E2" s="16">
-        <v>13</v>
-      </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
+        <v>13.5</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="16">
+        <v>29</v>
+      </c>
+      <c r="C3" s="16">
+        <v>143</v>
+      </c>
+      <c r="D3" s="16">
+        <v>86</v>
+      </c>
+      <c r="E3" s="16">
+        <v>13.5</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="16">
+        <v>29</v>
+      </c>
+      <c r="C4" s="16">
+        <v>143</v>
+      </c>
+      <c r="D4" s="16">
+        <v>86</v>
+      </c>
+      <c r="E4" s="16">
+        <v>13.5</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="16">
+        <v>29</v>
+      </c>
+      <c r="C5" s="16">
+        <v>143</v>
+      </c>
+      <c r="D5" s="16">
+        <v>86</v>
+      </c>
+      <c r="E5" s="16">
+        <v>13.5</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="16">
-        <v>20</v>
-      </c>
-      <c r="C3" s="16">
+      <c r="B6" s="16">
+        <v>18</v>
+      </c>
+      <c r="C6" s="16">
         <v>0</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D6" s="16">
         <v>0</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E6" s="16">
         <v>18</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
+      <c r="A7" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="16">
+        <v>13</v>
+      </c>
+      <c r="C7" s="16">
+        <v>0</v>
+      </c>
+      <c r="D7" s="16">
+        <v>0</v>
+      </c>
+      <c r="E7" s="16">
+        <v>12</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
+      <c r="A8" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="17">
+        <v>14.9</v>
+      </c>
+      <c r="C8" s="16">
+        <v>0</v>
+      </c>
+      <c r="D8" s="16">
+        <v>63.5</v>
+      </c>
+      <c r="E8" s="16">
+        <v>16.5</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
+      <c r="A9" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="16">
+        <v>0.65</v>
+      </c>
+      <c r="C9" s="16">
+        <v>0</v>
+      </c>
+      <c r="D9" s="16">
+        <v>61.7</v>
+      </c>
+      <c r="E9" s="16">
+        <v>11.8</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
+      <c r="A10" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16">
+        <v>0</v>
+      </c>
+      <c r="D10" s="16">
+        <v>69.3</v>
+      </c>
+      <c r="E10" s="16">
+        <v>43</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
+      <c r="A11" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="16">
+        <v>1.8</v>
+      </c>
+      <c r="D11" s="16">
+        <v>0</v>
+      </c>
+      <c r="E11" s="16">
+        <v>24</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
+      <c r="A12" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="16">
+        <v>10</v>
+      </c>
+      <c r="C12" s="16">
+        <v>0</v>
+      </c>
+      <c r="D12" s="16">
+        <v>40</v>
+      </c>
+      <c r="E12" s="16">
+        <v>8</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
+      <c r="A13" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="16">
+        <v>5</v>
+      </c>
+      <c r="C13" s="16">
+        <v>0</v>
+      </c>
+      <c r="D13" s="16">
+        <v>99.6</v>
+      </c>
+      <c r="E13" s="16">
+        <v>99.8</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
+      <c r="A14" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="16">
+        <v>12.1</v>
+      </c>
+      <c r="C14" s="16">
+        <v>50.8</v>
+      </c>
+      <c r="D14" s="16">
+        <v>22.1</v>
+      </c>
+      <c r="E14" s="16">
+        <v>72.3</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
+      <c r="A19" s="27"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
